--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="9480" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Item</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t xml:space="preserve">BYU papers, UKFs, etc. </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Trade Study on Hardware</t>
+  </si>
+  <si>
+    <t>Wait for customer verification of requirements before doing this</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Matt, Tyler, Taylor</t>
+  </si>
+  <si>
+    <t>Get quadrotor flying and pull data</t>
+  </si>
+  <si>
+    <t>Use vicon tutorial from Steve to pull data while quad is flying, import into matlab</t>
   </si>
 </sst>
 </file>
@@ -198,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -216,6 +237,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -635,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3">
         <v>42255</v>
@@ -874,6 +896,61 @@
       <c r="G14" s="5" t="s">
         <v>38</v>
       </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="6">
+        <v>42249</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6">
+        <v>42262</v>
+      </c>
+      <c r="D16" s="6">
+        <v>42249</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="0" windowWidth="25600" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Item</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Have VM installed</t>
   </si>
   <si>
-    <t>Lit. Rev.: Visual Tracking/Odometery/Lens</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Taylor</t>
   </si>
   <si>
-    <t>Lit. Rev.: Swarm Flight/Vis. Od.</t>
-  </si>
-  <si>
     <t>Prashant</t>
   </si>
   <si>
@@ -157,6 +151,15 @@
   </si>
   <si>
     <t>Use vicon tutorial from Steve to pull data while quad is flying, import into matlab</t>
+  </si>
+  <si>
+    <t>Lit. Rev: SLAM</t>
+  </si>
+  <si>
+    <t>Lit. Rev.: SLAM</t>
+  </si>
+  <si>
+    <t>Lit. Rev.: Visual Odemetry / SLAM</t>
   </si>
 </sst>
 </file>
@@ -572,7 +575,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -603,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -626,7 +629,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
@@ -649,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -657,7 +660,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3">
         <v>42255</v>
@@ -672,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -713,10 +716,10 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -733,13 +736,13 @@
         <v>42248</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30">
@@ -756,13 +759,13 @@
         <v>42248</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30">
@@ -779,13 +782,13 @@
         <v>42248</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -802,10 +805,10 @@
         <v>42248</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -823,10 +826,10 @@
         <v>42248</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -844,10 +847,10 @@
         <v>42248</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -865,13 +868,13 @@
         <v>42248</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -888,13 +891,13 @@
         <v>42248</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -905,19 +908,19 @@
         <v>6</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6">
         <v>42249</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -934,13 +937,13 @@
         <v>42249</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -132,12 +132,6 @@
     <t xml:space="preserve">BYU papers, UKFs, etc. </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Trade Study on Hardware</t>
-  </si>
-  <si>
     <t>Wait for customer verification of requirements before doing this</t>
   </si>
   <si>
@@ -160,6 +154,33 @@
   </si>
   <si>
     <t>Lit. Rev.: Visual Odemetry / SLAM</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>Controls Team</t>
+  </si>
+  <si>
+    <t>Develop controller models</t>
+  </si>
+  <si>
+    <t>Presentation will be made to Dr. Frew on 9-15</t>
+  </si>
+  <si>
+    <t>SLAM Team</t>
+  </si>
+  <si>
+    <t>Trade Study on Hardware (onboard comps)</t>
+  </si>
+  <si>
+    <t>Prototype SLAM Algorithm on Laptop</t>
+  </si>
+  <si>
+    <t>Presentation will be made to Dr. Frew on 9-23</t>
+  </si>
+  <si>
+    <t>Order and receive onboard computers and sensors</t>
   </si>
 </sst>
 </file>
@@ -572,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -614,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3">
         <v>42251</v>
@@ -637,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3">
         <v>42268</v>
@@ -660,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3">
         <v>42255</v>
@@ -683,7 +704,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C5" s="3">
         <v>42255</v>
@@ -716,7 +737,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -785,7 +806,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>31</v>
@@ -808,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -829,7 +850,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -907,20 +928,20 @@
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>37</v>
+      <c r="C15" s="6">
+        <v>42258</v>
       </c>
       <c r="D15" s="6">
         <v>42249</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -937,23 +958,81 @@
         <v>42249</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6">
+        <v>42263</v>
+      </c>
+      <c r="D17" s="6">
+        <v>42255</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6">
+        <v>42270</v>
+      </c>
+      <c r="D18" s="6">
+        <v>42255</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
+        <v>42278</v>
+      </c>
+      <c r="D19" s="6">
+        <v>42255</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
   <si>
     <t>Item</t>
   </si>
@@ -42,30 +42,15 @@
     <t>open</t>
   </si>
   <si>
-    <t>Austin/Drew</t>
-  </si>
-  <si>
-    <t>Meet with sponsors</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Scope document</t>
-  </si>
-  <si>
     <t xml:space="preserve">open </t>
   </si>
   <si>
     <t>Steve</t>
   </si>
   <si>
-    <t>Make a vicon tutorial</t>
-  </si>
-  <si>
-    <t>Have VM installed</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -99,15 +84,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Attendance of other team members is optional</t>
-  </si>
-  <si>
-    <t>Will be based on current understanding of requirements from Joe Tanners slides until further clarification is obtained from UTRC</t>
-  </si>
-  <si>
-    <t>Should be accessible to all with no vicon/linux experience</t>
-  </si>
-  <si>
     <t>Cheap lens parametrization, strategies for mitigating bad effects of cheap cameras</t>
   </si>
   <si>
@@ -132,12 +108,6 @@
     <t xml:space="preserve">BYU papers, UKFs, etc. </t>
   </si>
   <si>
-    <t>Wait for customer verification of requirements before doing this</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Matt, Tyler, Taylor</t>
   </si>
   <si>
@@ -153,9 +123,6 @@
     <t>Lit. Rev.: SLAM</t>
   </si>
   <si>
-    <t>Lit. Rev.: Visual Odemetry / SLAM</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -168,26 +135,83 @@
     <t>Presentation will be made to Dr. Frew on 9-15</t>
   </si>
   <si>
-    <t>SLAM Team</t>
-  </si>
-  <si>
-    <t>Trade Study on Hardware (onboard comps)</t>
-  </si>
-  <si>
     <t>Prototype SLAM Algorithm on Laptop</t>
   </si>
   <si>
     <t>Presentation will be made to Dr. Frew on 9-23</t>
   </si>
   <si>
-    <t>Order and receive onboard computers and sensors</t>
+    <t>Drew/Austin</t>
+  </si>
+  <si>
+    <t>Create requirements document</t>
+  </si>
+  <si>
+    <t>Should flow down from given customer description</t>
+  </si>
+  <si>
+    <t>Create integration team</t>
+  </si>
+  <si>
+    <t>Should consist of one member of each current subteam lead by the SE</t>
+  </si>
+  <si>
+    <t>Nav. Team</t>
+  </si>
+  <si>
+    <t>Perform trade study on camera sensor setup, onboard computers, and rangefinders</t>
+  </si>
+  <si>
+    <t>Controls Team (Prashant)</t>
+  </si>
+  <si>
+    <t>Perform trade study on autopilots</t>
+  </si>
+  <si>
+    <t>Accelerometer performance, gyro performance, and computing power</t>
+  </si>
+  <si>
+    <t>Perform trade studies on SLAM solutions</t>
+  </si>
+  <si>
+    <t>Follow up with Zohaib on questions listed in 9/9 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Steve's parts list and a bluetooth telecon tool </t>
+  </si>
+  <si>
+    <t>Review project charter</t>
+  </si>
+  <si>
+    <t>Send revisions and suggestions to Drew</t>
+  </si>
+  <si>
+    <t>Task Level</t>
+  </si>
+  <si>
+    <t>Lit. Rev.: Visual Odometry / SLAM</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Complete purchase orders on onboard PCs and sensors</t>
+  </si>
+  <si>
+    <t>Reference map errors, position estimate errors, and projected run rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +224,22 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,30 +280,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,21 +656,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.33203125" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,67 +688,76 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>42251</v>
+        <v>42262</v>
       </c>
       <c r="D2" s="3">
         <v>42248</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>42268</v>
+        <v>42262</v>
       </c>
       <c r="D3" s="3">
         <v>42248</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="D4" s="3">
         <v>42248</v>
@@ -693,39 +766,47 @@
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
-        <v>42255</v>
+        <v>42262</v>
       </c>
       <c r="D5" s="3">
         <v>42248</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>42262</v>
@@ -734,16 +815,17 @@
         <v>42248</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -757,16 +839,17 @@
         <v>42248</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -780,16 +863,17 @@
         <v>42248</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30">
+        <v>59</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -806,233 +890,332 @@
         <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
         <v>42262</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>42248</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
         <v>42262</v>
       </c>
-      <c r="D11" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="5">
+        <v>42249</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D12" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="30">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D12" s="5">
+        <v>42255</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D13" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42270</v>
+      </c>
+      <c r="D13" s="5">
+        <v>42255</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6">
-        <v>42262</v>
-      </c>
-      <c r="D14" s="6">
-        <v>42248</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D14" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D15" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D16" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D17" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D18" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D19" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="5">
+        <v>42263</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6">
-        <v>42258</v>
-      </c>
-      <c r="D15" s="6">
-        <v>42249</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="6">
-        <v>42262</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42249</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="6">
+      <c r="C21" s="5">
         <v>42263</v>
       </c>
-      <c r="D17" s="6">
-        <v>42255</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6">
-        <v>42270</v>
-      </c>
-      <c r="D18" s="6">
-        <v>42255</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="30">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="6">
-        <v>42278</v>
-      </c>
-      <c r="D19" s="6">
-        <v>42255</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="D21" s="5">
+        <v>42256</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="H21" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2860" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -45,69 +45,12 @@
     <t>All</t>
   </si>
   <si>
-    <t xml:space="preserve">open </t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Lit. Rev: Radio tracking/Indoor Flight/Cntrl.</t>
-  </si>
-  <si>
-    <t>Bryce</t>
-  </si>
-  <si>
-    <t>Lit. Rev.: Indoor Flight/Cntrl.</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Lit. Rev: Swarm Flight</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Prashant</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Cheap lens parametrization, strategies for mitigating bad effects of cheap cameras</t>
-  </si>
-  <si>
-    <t>Radio beacons for localization</t>
-  </si>
-  <si>
-    <t>Adaptive controls (L1 flight control?) evaluation needed, this is what IntelinAir uses</t>
-  </si>
-  <si>
-    <t>Lit. Rev.: Visual Odemetry</t>
-  </si>
-  <si>
-    <t>Flight strategies for using visual odemetry in control loop. I believe BYU has some good papers on this.</t>
-  </si>
-  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Lit. Rev. : Sensor Fusion/Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BYU papers, UKFs, etc. </t>
-  </si>
-  <si>
     <t>Matt, Tyler, Taylor</t>
   </si>
   <si>
@@ -117,12 +60,6 @@
     <t>Use vicon tutorial from Steve to pull data while quad is flying, import into matlab</t>
   </si>
   <si>
-    <t>Lit. Rev: SLAM</t>
-  </si>
-  <si>
-    <t>Lit. Rev.: SLAM</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -189,22 +126,19 @@
     <t>Task Level</t>
   </si>
   <si>
-    <t>Lit. Rev.: Visual Odometry / SLAM</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Low</t>
-  </si>
-  <si>
     <t>Complete purchase orders on onboard PCs and sensors</t>
   </si>
   <si>
     <t>Reference map errors, position estimate errors, and projected run rate</t>
+  </si>
+  <si>
+    <t>close</t>
   </si>
 </sst>
 </file>
@@ -280,7 +214,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -290,16 +224,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,15 +251,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -659,7 +594,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -688,266 +623,268 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
         <v>42262</v>
       </c>
-      <c r="D2" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>21</v>
+      <c r="D2" s="4">
+        <v>42249</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D3" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
+      <c r="C3" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D3" s="4">
+        <v>42255</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D4" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30">
+      <c r="C4" s="4">
+        <v>42270</v>
+      </c>
+      <c r="D4" s="4">
+        <v>42255</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D5" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
+      <c r="C5" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D5" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D6" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D7" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="2"/>
+      <c r="C7" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D7" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D8" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="30">
+      <c r="C8" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D8" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3">
-        <v>42262</v>
-      </c>
-      <c r="D9" s="3">
-        <v>42248</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="C9" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>25</v>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5">
-        <v>42262</v>
-      </c>
-      <c r="D10" s="5">
-        <v>42248</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="C10" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D10" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="5">
-        <v>42262</v>
-      </c>
-      <c r="D11" s="5">
-        <v>42249</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="C11" s="4">
+        <v>42263</v>
+      </c>
+      <c r="D11" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -955,270 +892,86 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
         <v>42263</v>
       </c>
-      <c r="D12" s="5">
-        <v>42255</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="4">
+        <v>42256</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>37</v>
+      <c r="G12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5">
-        <v>42270</v>
-      </c>
-      <c r="D13" s="5">
-        <v>42255</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D14" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D15" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D16" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D17" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D18" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D19" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D20" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5">
-        <v>42263</v>
-      </c>
-      <c r="D21" s="5">
-        <v>42256</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -594,7 +594,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2860" yWindow="1620" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="760" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Item</t>
   </si>
@@ -66,18 +66,6 @@
     <t>Controls Team</t>
   </si>
   <si>
-    <t>Develop controller models</t>
-  </si>
-  <si>
-    <t>Presentation will be made to Dr. Frew on 9-15</t>
-  </si>
-  <si>
-    <t>Prototype SLAM Algorithm on Laptop</t>
-  </si>
-  <si>
-    <t>Presentation will be made to Dr. Frew on 9-23</t>
-  </si>
-  <si>
     <t>Drew/Austin</t>
   </si>
   <si>
@@ -87,18 +75,9 @@
     <t>Should flow down from given customer description</t>
   </si>
   <si>
-    <t>Create integration team</t>
-  </si>
-  <si>
-    <t>Should consist of one member of each current subteam lead by the SE</t>
-  </si>
-  <si>
     <t>Nav. Team</t>
   </si>
   <si>
-    <t>Perform trade study on camera sensor setup, onboard computers, and rangefinders</t>
-  </si>
-  <si>
     <t>Controls Team (Prashant)</t>
   </si>
   <si>
@@ -108,9 +87,6 @@
     <t>Accelerometer performance, gyro performance, and computing power</t>
   </si>
   <si>
-    <t>Perform trade studies on SLAM solutions</t>
-  </si>
-  <si>
     <t>Follow up with Zohaib on questions listed in 9/9 minutes</t>
   </si>
   <si>
@@ -135,10 +111,37 @@
     <t>Complete purchase orders on onboard PCs and sensors</t>
   </si>
   <si>
-    <t>Reference map errors, position estimate errors, and projected run rate</t>
-  </si>
-  <si>
-    <t>close</t>
+    <t>Layout ROS/system architecture</t>
+  </si>
+  <si>
+    <t>Email Zohaib</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>MATLAB quadrotor modelling demo</t>
+  </si>
+  <si>
+    <t>Bryce add stuff here</t>
+  </si>
+  <si>
+    <t>Prototype and perform trade studies SLAM Algorithms on Laptop/Hardware</t>
+  </si>
+  <si>
+    <t>Presentation will be made to Dr. Frew on 9-23. RGBD and LiDAR solutions</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Get project charter signed by appropriate parties</t>
   </si>
 </sst>
 </file>
@@ -190,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -213,8 +216,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,8 +242,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,18 +272,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -623,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -640,7 +680,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>42262</v>
+        <v>42270</v>
       </c>
       <c r="D2" s="4">
         <v>42249</v>
@@ -649,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
@@ -658,90 +698,90 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="30">
       <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>42263</v>
+        <v>42270</v>
       </c>
       <c r="D3" s="4">
         <v>42255</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>16</v>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>42270</v>
+        <v>42263</v>
       </c>
       <c r="D4" s="4">
-        <v>42255</v>
+        <v>42256</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4">
-        <v>42263</v>
+        <v>42270</v>
       </c>
       <c r="D5" s="4">
         <v>42256</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>42263</v>
@@ -749,24 +789,22 @@
       <c r="D6" s="4">
         <v>42256</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="4">
@@ -775,23 +813,25 @@
       <c r="D7" s="4">
         <v>42256</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>42263</v>
@@ -800,174 +840,288 @@
         <v>42256</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10">
+        <v>42277</v>
+      </c>
+      <c r="D9" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C10" s="10">
+        <v>42265</v>
+      </c>
+      <c r="D10" s="10">
         <v>42263</v>
       </c>
-      <c r="D9" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9">
+        <v>14</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="10">
+        <v>42270</v>
+      </c>
+      <c r="D11" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9">
+        <v>15</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10">
+        <v>42277</v>
+      </c>
+      <c r="D12" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9">
+        <v>16</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>42268</v>
+      </c>
+      <c r="D13" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4">
-        <v>42263</v>
-      </c>
-      <c r="D10" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F13" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9">
+        <v>17</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9">
         <v>19</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42263</v>
-      </c>
-      <c r="D11" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>42263</v>
-      </c>
-      <c r="D12" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
+      <c r="A17" s="9">
+        <v>20</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Get project charter signed by appropriate parties</t>
+  </si>
+  <si>
+    <t>Get turtlebots running</t>
   </si>
 </sst>
 </file>
@@ -634,7 +637,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -976,12 +979,24 @@
       <c r="A14" s="9">
         <v>17</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>42277</v>
+      </c>
+      <c r="D14" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
@@ -1125,7 +1140,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryce\Documents\Flynet\Action Items\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="765" yWindow="735" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="52">
   <si>
     <t>Item</t>
   </si>
@@ -145,6 +150,36 @@
   </si>
   <si>
     <t>Get turtlebots running</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>SIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">open </t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>Understand code currently onboard Pixhawk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt  </t>
+  </si>
+  <si>
+    <t>Set up ROS and communication on Odroid</t>
+  </si>
+  <si>
+    <t>HIIGH</t>
+  </si>
+  <si>
+    <t>Develop control block diagram</t>
   </si>
 </sst>
 </file>
@@ -163,6 +198,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria"/>
+      <family val="1"/>
       <scheme val="major"/>
     </font>
     <font>
@@ -309,6 +345,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -636,20 +680,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.33203125" customWidth="1"/>
+    <col min="7" max="7" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="72.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -701,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -727,7 +771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -753,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -779,7 +823,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>9</v>
       </c>
@@ -803,7 +847,7 @@
       </c>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>10</v>
       </c>
@@ -829,7 +873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>11</v>
       </c>
@@ -855,7 +899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>12</v>
       </c>
@@ -879,7 +923,7 @@
       </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>13</v>
       </c>
@@ -903,7 +947,7 @@
       </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>14</v>
       </c>
@@ -927,7 +971,7 @@
       </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>15</v>
       </c>
@@ -951,7 +995,7 @@
       </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>16</v>
       </c>
@@ -975,7 +1019,7 @@
       </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>17</v>
       </c>
@@ -999,53 +1043,105 @@
       </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>18</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="10">
+        <v>42270</v>
+      </c>
+      <c r="D15" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>19</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="10">
+        <v>42270</v>
+      </c>
+      <c r="D16" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>20</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10">
+        <v>42270</v>
+      </c>
+      <c r="D17" s="10">
+        <v>42263</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4">
+        <v>42270</v>
+      </c>
+      <c r="D18" s="4">
+        <v>42263</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1054,7 +1150,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
@@ -1063,7 +1159,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1072,7 +1168,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1081,7 +1177,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1090,7 +1186,7 @@
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1099,43 +1195,43 @@
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
     </row>
   </sheetData>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Item</t>
   </si>
@@ -42,9 +42,6 @@
     <t>open</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>review</t>
   </si>
   <si>
-    <t>Controls Team</t>
-  </si>
-  <si>
     <t>Drew/Austin</t>
   </si>
   <si>
@@ -87,36 +81,9 @@
     <t>Accelerometer performance, gyro performance, and computing power</t>
   </si>
   <si>
-    <t>Follow up with Zohaib on questions listed in 9/9 minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference Steve's parts list and a bluetooth telecon tool </t>
-  </si>
-  <si>
-    <t>Review project charter</t>
-  </si>
-  <si>
-    <t>Send revisions and suggestions to Drew</t>
-  </si>
-  <si>
-    <t>Task Level</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Complete purchase orders on onboard PCs and sensors</t>
-  </si>
-  <si>
     <t>Layout ROS/system architecture</t>
   </si>
   <si>
-    <t>Email Zohaib</t>
-  </si>
-  <si>
     <t>Austin</t>
   </si>
   <si>
@@ -126,25 +93,49 @@
     <t>MATLAB quadrotor modelling demo</t>
   </si>
   <si>
-    <t>Bryce add stuff here</t>
-  </si>
-  <si>
     <t>Prototype and perform trade studies SLAM Algorithms on Laptop/Hardware</t>
   </si>
   <si>
     <t>Presentation will be made to Dr. Frew on 9-23. RGBD and LiDAR solutions</t>
   </si>
   <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>HIGH</t>
-  </si>
-  <si>
-    <t>Get project charter signed by appropriate parties</t>
-  </si>
-  <si>
     <t>Get turtlebots running</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>Pixhawk Controller Modelling</t>
+  </si>
+  <si>
+    <t>Implement pixhawk controller in matlab, email script to Drew by Friday</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>Position Interface Pixhawk</t>
+  </si>
+  <si>
+    <t>Includes running SIL Sim with ROS</t>
+  </si>
+  <si>
+    <t>Model Development</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Interface ODROID with Pixhawk</t>
+  </si>
+  <si>
+    <t>Talk to Bryce about messages that have to be sent.</t>
+  </si>
+  <si>
+    <t>Bryce, Matt</t>
+  </si>
+  <si>
+    <t>Spoof GPS Data from Vicon, close position control loop</t>
   </si>
 </sst>
 </file>
@@ -196,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,21 +210,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -251,8 +229,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -269,17 +257,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -288,7 +270,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -297,6 +279,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -305,6 +292,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -634,22 +626,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="47.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,16 +657,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -689,21 +677,18 @@
         <v>42249</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
+    </row>
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
@@ -715,47 +700,41 @@
         <v>42255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>42263</v>
+        <v>42272</v>
       </c>
       <c r="D4" s="4">
         <v>42256</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -767,376 +746,282 @@
         <v>42256</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8">
+        <v>42270</v>
+      </c>
+      <c r="D7" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D8" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <v>42272</v>
+      </c>
+      <c r="D9" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
+      <c r="G9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D10" s="8">
+        <v>42270</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42270</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42277</v>
+      </c>
+      <c r="D12" s="4">
         <v>42263</v>
       </c>
-      <c r="D6" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42284</v>
+      </c>
+      <c r="D13" s="8">
+        <v>42270</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>42263</v>
-      </c>
-      <c r="D7" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>42263</v>
-      </c>
-      <c r="D8" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="10">
-        <v>42277</v>
-      </c>
-      <c r="D9" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10">
-        <v>42265</v>
-      </c>
-      <c r="D10" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10">
-        <v>42270</v>
-      </c>
-      <c r="D11" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="11"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9">
-        <v>15</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="10">
-        <v>42277</v>
-      </c>
-      <c r="D12" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="11"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="10">
-        <v>42268</v>
-      </c>
-      <c r="D13" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="10">
-        <v>42277</v>
-      </c>
-      <c r="D14" s="10">
-        <v>42263</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="9">
-        <v>19</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="9">
-        <v>20</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="C34" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="C28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="60" windowWidth="28700" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -69,12 +69,6 @@
     <t>Should flow down from given customer description</t>
   </si>
   <si>
-    <t>Nav. Team</t>
-  </si>
-  <si>
-    <t>Controls Team (Prashant)</t>
-  </si>
-  <si>
     <t>Perform trade study on autopilots</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Includes running SIL Sim with ROS</t>
   </si>
   <si>
-    <t>Model Development</t>
-  </si>
-  <si>
     <t>Matt</t>
   </si>
   <si>
@@ -136,6 +127,24 @@
   </si>
   <si>
     <t>Spoof GPS Data from Vicon, close position control loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run RTAB map on Tegra/ODROID in flight envrionment </t>
+  </si>
+  <si>
+    <t>Block diagram for perception team</t>
+  </si>
+  <si>
+    <t>Reflash team computer</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Perception Team</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,6 +276,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -626,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -671,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4">
-        <v>42270</v>
+        <v>42276</v>
       </c>
       <c r="D2" s="4">
         <v>42249</v>
@@ -700,13 +715,13 @@
         <v>42255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -737,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4">
         <v>42270</v>
@@ -746,13 +761,13 @@
         <v>42256</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -769,10 +784,10 @@
         <v>42263</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="9"/>
     </row>
@@ -790,10 +805,10 @@
         <v>42263</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -814,7 +829,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G8" s="9"/>
     </row>
@@ -832,13 +847,13 @@
         <v>42263</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -855,150 +870,166 @@
         <v>42270</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="4">
         <v>42277</v>
       </c>
-      <c r="D11" s="8">
-        <v>42270</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="D11" s="4">
+        <v>42263</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
-        <v>42277</v>
-      </c>
-      <c r="D12" s="4">
-        <v>42263</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="8">
+        <v>42284</v>
+      </c>
+      <c r="D12" s="8">
+        <v>42270</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="11">
+        <v>42270</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8">
-        <v>42284</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="11">
         <v>42270</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="11">
+        <v>42270</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7">
       <c r="C23" s="7"/>
@@ -1018,10 +1049,6 @@
     </row>
     <row r="27" spans="1:7">
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="C28" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="60" windowWidth="28700" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Item</t>
   </si>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -278,10 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +641,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -925,24 +922,32 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="11">
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="8">
+        <v>42284</v>
+      </c>
+      <c r="D13" s="8">
         <v>42270</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="9" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="11">
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D14" s="8">
         <v>42270</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -951,30 +956,32 @@
       <c r="F14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="11">
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42272</v>
+      </c>
+      <c r="D15" s="8">
         <v>42270</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7">

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Item</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>closed</t>
+  </si>
+  <si>
+    <t>Develop final flight demo design</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -219,6 +222,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -249,7 +265,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -279,6 +295,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -640,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -921,7 +946,9 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="7"/>
+      <c r="A13" s="9">
+        <v>13</v>
+      </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
       </c>
@@ -940,7 +967,9 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="7"/>
+      <c r="A14" s="9">
+        <v>14</v>
+      </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -959,30 +988,46 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="8">
+      <c r="A15" s="9">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="12">
         <v>42272</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="12">
         <v>42270</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="9"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="9">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8">
+        <v>42297</v>
+      </c>
+      <c r="D16" s="8">
+        <v>42273</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Item</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Drew</t>
   </si>
   <si>
-    <t>Matt, Tyler, Taylor</t>
-  </si>
-  <si>
-    <t>Get quadrotor flying and pull data</t>
-  </si>
-  <si>
-    <t>Use vicon tutorial from Steve to pull data while quad is flying, import into matlab</t>
-  </si>
-  <si>
     <t>review</t>
   </si>
   <si>
@@ -69,12 +60,6 @@
     <t>Should flow down from given customer description</t>
   </si>
   <si>
-    <t>Perform trade study on autopilots</t>
-  </si>
-  <si>
-    <t>Accelerometer performance, gyro performance, and computing power</t>
-  </si>
-  <si>
     <t>Layout ROS/system architecture</t>
   </si>
   <si>
@@ -87,27 +72,12 @@
     <t>MATLAB quadrotor modelling demo</t>
   </si>
   <si>
-    <t>Prototype and perform trade studies SLAM Algorithms on Laptop/Hardware</t>
-  </si>
-  <si>
-    <t>Presentation will be made to Dr. Frew on 9-23. RGBD and LiDAR solutions</t>
-  </si>
-  <si>
     <t>Get turtlebots running</t>
   </si>
   <si>
     <t>Prashant</t>
   </si>
   <si>
-    <t>Pixhawk Controller Modelling</t>
-  </si>
-  <si>
-    <t>Implement pixhawk controller in matlab, email script to Drew by Friday</t>
-  </si>
-  <si>
-    <t>Bryce</t>
-  </si>
-  <si>
     <t>Position Interface Pixhawk</t>
   </si>
   <si>
@@ -123,9 +93,6 @@
     <t>Talk to Bryce about messages that have to be sent.</t>
   </si>
   <si>
-    <t>Bryce, Matt</t>
-  </si>
-  <si>
     <t>Spoof GPS Data from Vicon, close position control loop</t>
   </si>
   <si>
@@ -135,19 +102,37 @@
     <t>Block diagram for perception team</t>
   </si>
   <si>
-    <t>Reflash team computer</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
     <t>Perception Team</t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Develop final flight demo design</t>
+  </si>
+  <si>
+    <t>Bryce/Steve</t>
+  </si>
+  <si>
+    <t>Taylor/Matt</t>
+  </si>
+  <si>
+    <t>Mass vs Endurance Testing. Pull Vicon data</t>
+  </si>
+  <si>
+    <t>LiDAR and Ultrasonic Hardware testing</t>
+  </si>
+  <si>
+    <t>Purchasing Round 2</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Target tracking prototyping</t>
+  </si>
+  <si>
+    <t>Power Budget</t>
+  </si>
+  <si>
+    <t>Tyler</t>
   </si>
 </sst>
 </file>
@@ -199,7 +184,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -222,21 +207,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +236,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -297,17 +283,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="41">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -321,6 +298,13 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -334,6 +318,13 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -704,135 +695,133 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="4">
-        <v>42276</v>
+        <v>42272</v>
       </c>
       <c r="D2" s="4">
-        <v>42249</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>42256</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4">
-        <v>42270</v>
-      </c>
-      <c r="D3" s="4">
-        <v>42255</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>42277</v>
+      </c>
+      <c r="D3" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
-        <v>42272</v>
-      </c>
-      <c r="D4" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8">
+        <v>42297</v>
+      </c>
+      <c r="D4" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="4">
-        <v>42270</v>
-      </c>
-      <c r="D5" s="4">
-        <v>42256</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>42297</v>
+      </c>
+      <c r="D5" s="8">
+        <v>42263</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>17</v>
       </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="D6" s="8">
-        <v>42263</v>
-      </c>
-      <c r="E6" s="6" t="s">
+        <v>42270</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>42270</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>42284</v>
+      </c>
+      <c r="D7" s="4">
         <v>42263</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9"/>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2">
@@ -842,13 +831,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="8">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="D8" s="8">
-        <v>42263</v>
+        <v>42270</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>24</v>
@@ -863,20 +852,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="8">
-        <v>42272</v>
+        <v>42284</v>
       </c>
       <c r="D9" s="8">
-        <v>42263</v>
+        <v>42270</v>
       </c>
       <c r="E9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2">
@@ -886,47 +873,43 @@
         <v>6</v>
       </c>
       <c r="C10" s="8">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="D10" s="8">
         <v>42270</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="E10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4">
-        <v>42277</v>
-      </c>
-      <c r="D11" s="4">
-        <v>42263</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>33</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8">
+        <v>42297</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42273</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -935,19 +918,19 @@
         <v>42284</v>
       </c>
       <c r="D12" s="8">
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
-        <v>13</v>
+      <c r="A13" s="2">
+        <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -956,76 +939,76 @@
         <v>42284</v>
       </c>
       <c r="D13" s="8">
-        <v>42270</v>
+        <v>42275</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>14</v>
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="8">
-        <v>42277</v>
+        <v>42284</v>
       </c>
       <c r="D14" s="8">
-        <v>42270</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>37</v>
+        <v>42275</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9">
-        <v>15</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="12">
-        <v>42272</v>
-      </c>
-      <c r="D15" s="12">
-        <v>42270</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="8">
+        <v>42284</v>
+      </c>
+      <c r="D15" s="8">
+        <v>42275</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="8">
-        <v>42297</v>
+        <v>42284</v>
       </c>
       <c r="D16" s="8">
-        <v>42273</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>42</v>
+        <v>42275</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -1039,68 +1022,23 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Item</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Tyler</t>
+  </si>
+  <si>
+    <t>Hardware Modifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade guards, sensor mounts, etc. </t>
   </si>
 </sst>
 </file>
@@ -656,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1013,13 +1019,27 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="8">
+        <v>42284</v>
+      </c>
+      <c r="D17" s="8">
+        <v>42275</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="C18" s="7"/>

--- a/Action Items/open_action_items.xlsx
+++ b/Action Items/open_action_items.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="250" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="14000" tabRatio="250"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -92,7 +96,7 @@
     <t>Perception Team</t>
   </si>
   <si>
-    <t>Run RTAB map on Tegra/ODROID in flight envrionment </t>
+    <t>Run RTAB map on Tegra/ODROID in flight envrionment</t>
   </si>
   <si>
     <t>Matt</t>
@@ -128,7 +132,7 @@
     <t>Hardware Modifications</t>
   </si>
   <si>
-    <t>Blade guards, sensor mounts, etc. </t>
+    <t>Blade guards, sensor mounts, etc.</t>
   </si>
   <si>
     <t>21-Oct</t>
@@ -149,33 +153,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="D\-MMM"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -200,100 +185,70 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -352,33 +307,354 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.162962962963"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="10.4925925925926"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0037037037037"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.162962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="72.3333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="10.4925925925926"/>
+    <col min="6" max="6" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,17 +677,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" ht="30">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>42272</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>42256</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -424,17 +700,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="6">
         <v>42277</v>
       </c>
-      <c r="D3" s="6" t="n">
+      <c r="D3" s="6">
         <v>42263</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -445,17 +721,17 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="6">
         <v>42297</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="6">
         <v>42263</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -466,17 +742,17 @@
       </c>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="6">
         <v>42297</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="6">
         <v>42263</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -487,17 +763,17 @@
       </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>42284</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="6">
         <v>42270</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -510,17 +786,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>42284</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>42263</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -533,17 +809,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="6">
         <v>42284</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>42270</v>
       </c>
       <c r="E8" s="7" t="s">
@@ -554,17 +830,17 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="6">
         <v>42284</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>42270</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -575,17 +851,17 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="6">
         <v>42297</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>42273</v>
       </c>
       <c r="E10" s="9" t="s">
@@ -596,17 +872,17 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6" t="n">
+      <c r="C11" s="6">
         <v>42284</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>42275</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -617,17 +893,17 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6" t="n">
+      <c r="C12" s="6">
         <v>42284</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="6">
         <v>42275</v>
       </c>
       <c r="E12" s="7" t="s">
@@ -638,17 +914,17 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="7">
         <v>14</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="6" t="n">
+      <c r="C13" s="6">
         <v>42284</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="6">
         <v>42275</v>
       </c>
       <c r="E13" s="7" t="s">
@@ -659,17 +935,17 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="7">
         <v>15</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="n">
+      <c r="C14" s="6">
         <v>42284</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="6">
         <v>42275</v>
       </c>
       <c r="E14" s="7" t="s">
@@ -680,17 +956,17 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="7">
         <v>16</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="6">
         <v>42284</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="6">
         <v>42275</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -703,8 +979,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="7">
         <v>17</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -723,8 +999,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
         <v>18</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -744,12 +1020,11 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>